--- a/susan and Tim Problem Solver.xlsx
+++ b/susan and Tim Problem Solver.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIVANI\OneDrive\Desktop\development\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c36ce1cf3edd09d/Desktop/development/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60365B-867D-48D2-B1F1-62DA7F02598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{ED60365B-867D-48D2-B1F1-62DA7F02598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CC3A20-E3A5-487E-8365-BACE6E124BE4}"/>
   <bookViews>
-    <workbookView xWindow="3650" yWindow="840" windowWidth="14400" windowHeight="7270" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shopping list problem" sheetId="1" r:id="rId1"/>
-    <sheet name="Cat or Dog problem" sheetId="2" r:id="rId2"/>
-    <sheet name="Three Vacations" sheetId="3" r:id="rId3"/>
+    <sheet name="Cat or Dog problem" sheetId="2" r:id="rId1"/>
+    <sheet name="Three Vacations" sheetId="3" r:id="rId2"/>
+    <sheet name="cell phone bill" sheetId="6" r:id="rId3"/>
     <sheet name="three printers" sheetId="4" r:id="rId4"/>
-    <sheet name="Three cars" sheetId="5" r:id="rId5"/>
-    <sheet name="cell phone bill" sheetId="6" r:id="rId6"/>
+    <sheet name="Shopping list problem" sheetId="1" r:id="rId5"/>
+    <sheet name="Three cars" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="150">
   <si>
     <t xml:space="preserve">Items </t>
   </si>
@@ -448,6 +448,48 @@
   <si>
     <t xml:space="preserve">40% more cost </t>
   </si>
+  <si>
+    <t xml:space="preserve">I am susan. Would you help me pick one of these three companiees? I'm looking to get the best price possible during the next 2 years.  I'm OK with signing a contract. I plan to use 3 GB of data each month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Tim. Would you help me pick one of these three companiees? I'm looking to get the best price possible during the next 2 years.  I'm OK with signing a contract. I plan to use 1 GB of data each month </t>
+  </si>
+  <si>
+    <t>X-mobile</t>
+  </si>
+  <si>
+    <t>Veritium</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>extra data for each GB cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per month cost </t>
+  </si>
+  <si>
+    <t>cost of extra 2GB</t>
+  </si>
+  <si>
+    <t>Plan Fee</t>
+  </si>
+  <si>
+    <t>Taxes and Fees</t>
+  </si>
+  <si>
+    <t>Cell Phone Rent</t>
+  </si>
+  <si>
+    <t>Phone purchase</t>
+  </si>
+  <si>
+    <t>Total Monthly cost</t>
+  </si>
+  <si>
+    <t>2 years cost</t>
+  </si>
 </sst>
 </file>
 
@@ -455,9 +497,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,8 +583,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +689,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -653,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -668,28 +730,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -700,25 +741,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -726,9 +755,55 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -748,877 +823,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Susan's</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Shopping list problem'!$H$8:$J$8</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>walt-mart</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>dollar trap</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>office repo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Shopping list problem'!$H$26:$J$26</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>91.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-897B-4C99-9B6A-1DD443B19B99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-37"/>
-        <c:axId val="1937541376"/>
-        <c:axId val="1494617728"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1937541376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1494617728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1494617728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Dollars</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1937541376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Tim's</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Chart</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Shopping list problem'!$N$8:$P$8</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>walt-mart</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>dollar trap</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>office repo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Shopping list problem'!$N$26:$P$26</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>75.899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.499999999999986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>108.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B647-493C-A6A8-99318A1AE81D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1938721280"/>
-        <c:axId val="1938720864"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1938721280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1938720864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1938720864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Total</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Dollars</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1938721280"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1990,7 +1194,1291 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Susan's</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Three cars'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg cost/year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$B$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$B$34:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7052.5714285714284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13207.78947368421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20112.823529411766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0027-4C09-9D9A-288ADF35DD50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Three cars'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$B$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$B$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0027-4C09-9D9A-288ADF35DD50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Three cars'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40% less cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$B$33:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$B$36:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4231.5428571428565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7924.6736842105256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12067.694117647059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0027-4C09-9D9A-288ADF35DD50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1599802911"/>
+        <c:axId val="1599803327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1599802911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599803327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1599803327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599802911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tim's</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Three cars'!$G$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg cost/year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$H$33:$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$H$34:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7052.5714285714284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13207.78947368421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20112.823529411766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D600-4B9D-8815-6A2251F2F202}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Three cars'!$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$H$33:$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$H$35:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D600-4B9D-8815-6A2251F2F202}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Three cars'!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40% more cost </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Three cars'!$H$33:$J$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Spark</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mustang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Escalade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Three cars'!$H$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9873.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18490.905263157896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28157.952941176474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D600-4B9D-8815-6A2251F2F202}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="988014863"/>
+        <c:axId val="988016111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="988014863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="988016111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="988016111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="988014863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2356,7 +2844,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2667,6 +3155,750 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="709578367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2 years cost for Susan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cell phone bill'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 years cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cell phone bill'!$B$5:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>X-mobile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veritium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cell phone bill'!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13560</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9838-4104-9CC3-A459A711904C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1351448768"/>
+        <c:axId val="1351449600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1351448768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351449600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1351449600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351448768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2 years cost for Tim</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cell phone bill'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 years cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cell phone bill'!$G$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>X-mobile</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Veritium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cell phone bill'!$G$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7FB-48C5-A839-DF49F10C6321}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1207491536"/>
+        <c:axId val="1207493616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1207491536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207493616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1207493616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207491536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3497,14 +4729,21 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Susan's</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Chart</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3547,17 +4786,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Three cars'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg cost/year</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3628,276 +4856,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Three cars'!$B$33:$D$33</c:f>
+              <c:f>'Shopping list problem'!$H$8:$J$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Spark</c:v>
+                  <c:v>walt-mart</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mustang</c:v>
+                  <c:v>dollar trap</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escalade</c:v>
+                  <c:v>office repo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Three cars'!$B$34:$D$34</c:f>
+              <c:f>'Shopping list problem'!$H$26:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7052.5714285714284</c:v>
+                  <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13207.78947368421</c:v>
+                  <c:v>92.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20112.823529411766</c:v>
+                  <c:v>126.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0027-4C09-9D9A-288ADF35DD50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Three cars'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Three cars'!$B$33:$D$33</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Spark</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mustang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Escalade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Three cars'!$B$35:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0027-4C09-9D9A-288ADF35DD50}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Three cars'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40% less cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Three cars'!$B$33:$D$33</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Spark</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mustang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Escalade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Three cars'!$B$36:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4231.5428571428565</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7924.6736842105256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12067.694117647059</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0027-4C09-9D9A-288ADF35DD50}"/>
+              <c16:uniqueId val="{00000000-897B-4C99-9B6A-1DD443B19B99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3911,12 +4905,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1599802911"/>
-        <c:axId val="1599803327"/>
+        <c:overlap val="-37"/>
+        <c:axId val="1937541376"/>
+        <c:axId val="1494617728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1599802911"/>
+        <c:axId val="1937541376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3959,7 +4953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599803327"/>
+        <c:crossAx val="1494617728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3967,7 +4961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1599803327"/>
+        <c:axId val="1494617728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,6 +4981,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Dollars</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4018,7 +5072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1599802911"/>
+        <c:crossAx val="1937541376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4030,37 +5084,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4139,14 +5162,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Tim's</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> Chart</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4189,17 +5224,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Three cars'!$G$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg cost/year</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4270,276 +5294,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Three cars'!$H$33:$J$33</c:f>
+              <c:f>'Shopping list problem'!$N$8:$P$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Spark</c:v>
+                  <c:v>walt-mart</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mustang</c:v>
+                  <c:v>dollar trap</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Escalade</c:v>
+                  <c:v>office repo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Three cars'!$H$34:$J$34</c:f>
+              <c:f>'Shopping list problem'!$N$26:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7052.5714285714284</c:v>
+                  <c:v>75.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13207.78947368421</c:v>
+                  <c:v>71.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20112.823529411766</c:v>
+                  <c:v>108.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D600-4B9D-8815-6A2251F2F202}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Three cars'!$G$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Three cars'!$H$33:$J$33</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Spark</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mustang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Escalade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Three cars'!$H$35:$J$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D600-4B9D-8815-6A2251F2F202}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Three cars'!$G$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40% more cost </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Three cars'!$H$33:$J$33</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Spark</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mustang</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Escalade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Three cars'!$H$36:$J$36</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9873.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18490.905263157896</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28157.952941176474</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D600-4B9D-8815-6A2251F2F202}"/>
+              <c16:uniqueId val="{00000000-B647-493C-A6A8-99318A1AE81D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4554,11 +5344,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="988014863"/>
-        <c:axId val="988016111"/>
+        <c:axId val="1938721280"/>
+        <c:axId val="1938720864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="988014863"/>
+        <c:axId val="1938721280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,7 +5391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988016111"/>
+        <c:crossAx val="1938720864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4609,7 +5399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="988016111"/>
+        <c:axId val="1938720864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4629,6 +5419,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Dollars</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4660,7 +5510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="988014863"/>
+        <c:crossAx val="1938721280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4672,37 +5522,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4748,6 +5567,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5610,7 +6509,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6113,7 +7012,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6616,7 +7515,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7119,7 +8018,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7622,7 +8521,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8125,7 +9024,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8628,7 +9527,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9131,7 +10030,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9634,84 +10533,1013 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>480084</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8766</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>5904</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>126436</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90ECDFF8-6018-EE03-B3EE-0526B9E5550A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11547</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161638</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>159327</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E797EA-7917-9C07-96B2-8E3859277B0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9752,7 +11580,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9809,6 +11637,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A8FF82-5B4D-6DA9-EDA4-95C2BC50F785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>738909</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80819</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7B57C9-37E6-C73A-B3FB-94F1B0177A86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A416D2-EF55-D5D4-91DD-D36FB80E9F75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9907,6 +11812,83 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480084</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5904</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>126436</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90ECDFF8-6018-EE03-B3EE-0526B9E5550A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11547</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161638</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>159327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E797EA-7917-9C07-96B2-8E3859277B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10245,10 +12227,1776 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C384D3B-BCD7-4CDD-9B74-9149EE39FFDB}">
+  <dimension ref="A1:X22"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:X4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="10">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <f>E8*D8</f>
+        <v>42</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <f>M8*L8</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <f>E9*D9</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <f>M9*L9</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7">
+        <f>SUM(B8:B11)</f>
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUM(F8:F9)</f>
+        <v>48</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="I13" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM(J8:J10)</f>
+        <v>13.5</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="7">
+        <f>SUM(N8:N9)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="13"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="13"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <f>SUM(B6+B13+(12*F13))</f>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <f>SUM(J6+J13+(12*N13))</f>
+        <v>559.5</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="D18" s="13"/>
+      <c r="F18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="A3:X4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7259FEF3-3E85-4A67-9691-F1642997CC3D}">
+  <dimension ref="A1:X33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+    </row>
+    <row r="3" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2">
+        <v>280</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>85</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="F21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="7">
+        <f>2*(SUM(B10:B19))</f>
+        <v>694</v>
+      </c>
+      <c r="C24" s="7">
+        <f>2*(SUM(C10:C19))</f>
+        <v>928</v>
+      </c>
+      <c r="D24" s="7">
+        <f>2*(SUM(D10:D19))</f>
+        <v>1810</v>
+      </c>
+      <c r="F24" s="7">
+        <f>4*(SUM(B10:B19))</f>
+        <v>1388</v>
+      </c>
+      <c r="G24" s="7">
+        <f>4*(SUM(C10:C19))</f>
+        <v>1856</v>
+      </c>
+      <c r="H24" s="7">
+        <f>4*(SUM(D10:D19))</f>
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2">
+        <v>105</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>120</v>
+      </c>
+      <c r="G28" s="2">
+        <v>105</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>40</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2">
+        <f>B23*50</f>
+        <v>100</v>
+      </c>
+      <c r="C30" s="2">
+        <f>C23*50</f>
+        <v>100</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <f>F23*50</f>
+        <v>200</v>
+      </c>
+      <c r="G30" s="2">
+        <f>G23*50</f>
+        <v>200</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="7">
+        <f>B27*(SUM(B28:B30))</f>
+        <v>1300</v>
+      </c>
+      <c r="C31" s="7">
+        <f>C27*(SUM(C28:C30))</f>
+        <v>1025</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" ref="D31" si="0">D27*(SUM(D28:D30))</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <f>F27*(SUM(F28:F30))</f>
+        <v>1800</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" ref="G31:H31" si="1">G27*(SUM(G28:G30))</f>
+        <v>1525</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="20">
+        <f>SUM(B24,B31)</f>
+        <v>1994</v>
+      </c>
+      <c r="C33" s="20">
+        <f>SUM(C24,C31)</f>
+        <v>1953</v>
+      </c>
+      <c r="D33" s="20">
+        <f>SUM(D24,D31)</f>
+        <v>1810</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20">
+        <f>SUM(F24,F31)</f>
+        <v>3188</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" ref="G33" si="2">SUM(G24,G31)</f>
+        <v>3381</v>
+      </c>
+      <c r="H33" s="20">
+        <f>SUM(H24,H31)</f>
+        <v>3620</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:X5"/>
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="A3:X4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774CAAD1-EF03-4D54-8B56-B3089FB89856}">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="F4" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="33">
+        <v>19</v>
+      </c>
+      <c r="C6" s="33">
+        <v>35</v>
+      </c>
+      <c r="D6" s="33">
+        <v>55</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="36">
+        <v>19</v>
+      </c>
+      <c r="H6" s="36">
+        <v>35</v>
+      </c>
+      <c r="I6" s="36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="36">
+        <v>9.5</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="33">
+        <v>30</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="36">
+        <v>30</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34">
+        <v>500</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="F10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37">
+        <v>500</v>
+      </c>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="32">
+        <v>20</v>
+      </c>
+      <c r="C11" s="32">
+        <v>15</v>
+      </c>
+      <c r="D11" s="32">
+        <v>5</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="2">
+        <f>2*B11</f>
+        <v>40</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:D12" si="0">2*C11</f>
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="30">
+        <f>SUM(B6:B8,B12)</f>
+        <v>98.5</v>
+      </c>
+      <c r="C14" s="30">
+        <f>SUM(C6,C10,C12)</f>
+        <v>565</v>
+      </c>
+      <c r="D14" s="30">
+        <f>SUM(D6,D12)</f>
+        <v>65</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="39">
+        <f>SUM(G6:G8,G12)</f>
+        <v>58.5</v>
+      </c>
+      <c r="H14" s="39">
+        <f>SUM(H6,H10,H12)</f>
+        <v>535</v>
+      </c>
+      <c r="I14" s="39">
+        <f>SUM(I6,I12)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="31">
+        <f>B14*24</f>
+        <v>2364</v>
+      </c>
+      <c r="C16" s="31">
+        <f t="shared" ref="C16:D16" si="1">C14*24</f>
+        <v>13560</v>
+      </c>
+      <c r="D16" s="31">
+        <f t="shared" si="1"/>
+        <v>1560</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="41">
+        <f>G14*24</f>
+        <v>1404</v>
+      </c>
+      <c r="H16" s="41">
+        <f t="shared" ref="H16:I16" si="2">H14*24</f>
+        <v>12840</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="2"/>
+        <v>1320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39181714-868F-44C8-AC94-7F9B98E7571B}">
+  <dimension ref="A1:X31"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A5" sqref="A3:X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>149</v>
+      </c>
+      <c r="D9" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="7">
+        <f>B14/B13</f>
+        <v>5</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:D15" si="0">C14/C13</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>29.72972972972973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <f>(B19*B20)*B21</f>
+        <v>3900</v>
+      </c>
+      <c r="F22">
+        <f>(F19*F20)*F21</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24">
+        <f>B22</f>
+        <v>3900</v>
+      </c>
+      <c r="F24">
+        <f>F22</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="7">
+        <f>B15*B24</f>
+        <v>19500</v>
+      </c>
+      <c r="C25" s="7">
+        <f>C15*B24</f>
+        <v>43333.333333333328</v>
+      </c>
+      <c r="D25" s="7">
+        <f>D15*B24</f>
+        <v>115945.94594594595</v>
+      </c>
+      <c r="F25" s="7">
+        <f>B15*F24</f>
+        <v>650000</v>
+      </c>
+      <c r="G25" s="7">
+        <f>C15*F24</f>
+        <v>1444444.4444444445</v>
+      </c>
+      <c r="H25" s="7">
+        <f>D15*F24</f>
+        <v>3864864.8648648649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="7">
+        <f>B25*B26</f>
+        <v>39000</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" ref="C28:H28" si="1">C25*C26</f>
+        <v>86666.666666666657</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>231891.89189189189</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>1300000</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>2888888.888888889</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>7729729.7297297297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="20">
+        <f>B28+B9</f>
+        <v>39029</v>
+      </c>
+      <c r="C31" s="20">
+        <f t="shared" ref="C31:D31" si="2">C28+C9</f>
+        <v>86815.666666666657</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="2"/>
+        <v>232440.89189189189</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20">
+        <f>F28+B9</f>
+        <v>1300029</v>
+      </c>
+      <c r="G31" s="20">
+        <f>G28+C9</f>
+        <v>2889037.888888889</v>
+      </c>
+      <c r="H31" s="20">
+        <f>H28+D9</f>
+        <v>7730278.7297297297</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="A3:X4"/>
+    <mergeCell ref="A5:X6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V5" sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
@@ -10267,142 +14015,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="H7" s="9" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="H7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="N7" s="10" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="N7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -11266,1468 +15014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C384D3B-BCD7-4CDD-9B74-9149EE39FFDB}">
-  <dimension ref="A1:X22"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:X4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="17">
-        <v>50</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="I7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="2">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <f>E8*D8</f>
-        <v>42</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="2">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <f>M8*L8</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <f>E9*D9</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="2">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" s="7">
-        <f>M9*L9</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="7">
-        <f>SUM(B8:B11)</f>
-        <v>18</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="7">
-        <f>SUM(F8:F9)</f>
-        <v>48</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="I13" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="7">
-        <f>SUM(J8:J10)</f>
-        <v>13.5</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="7">
-        <f>SUM(N8:N9)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="20"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="20"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <f>SUM(B6+B13+(12*F13))</f>
-        <v>644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <f>SUM(J6+J13+(12*N13))</f>
-        <v>559.5</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="20"/>
-      <c r="F18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:X2"/>
-    <mergeCell ref="A3:X4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7259FEF3-3E85-4A67-9691-F1642997CC3D}">
-  <dimension ref="A1:X33"/>
-  <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2">
-        <v>280</v>
-      </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>99</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>95</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="F21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="7">
-        <f>2*(SUM(B10:B19))</f>
-        <v>694</v>
-      </c>
-      <c r="C24" s="7">
-        <f>2*(SUM(C10:C19))</f>
-        <v>928</v>
-      </c>
-      <c r="D24" s="7">
-        <f>2*(SUM(D10:D19))</f>
-        <v>1810</v>
-      </c>
-      <c r="F24" s="7">
-        <f>4*(SUM(B10:B19))</f>
-        <v>1388</v>
-      </c>
-      <c r="G24" s="7">
-        <f>4*(SUM(C10:C19))</f>
-        <v>1856</v>
-      </c>
-      <c r="H24" s="7">
-        <f>4*(SUM(D10:D19))</f>
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="2">
-        <v>120</v>
-      </c>
-      <c r="C28" s="2">
-        <v>105</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
-        <v>120</v>
-      </c>
-      <c r="G28" s="2">
-        <v>105</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="2">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>40</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="2">
-        <f>B23*50</f>
-        <v>100</v>
-      </c>
-      <c r="C30" s="2">
-        <f>C23*50</f>
-        <v>100</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <f>F23*50</f>
-        <v>200</v>
-      </c>
-      <c r="G30" s="2">
-        <f>G23*50</f>
-        <v>200</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="7">
-        <f>B27*(SUM(B28:B30))</f>
-        <v>1300</v>
-      </c>
-      <c r="C31" s="7">
-        <f>C27*(SUM(C28:C30))</f>
-        <v>1025</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" ref="C31:D31" si="0">D27*(SUM(D28:D30))</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <f>F27*(SUM(F28:F30))</f>
-        <v>1800</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" ref="G31:H31" si="1">G27*(SUM(G28:G30))</f>
-        <v>1525</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="29">
-        <f>SUM(B24,B31)</f>
-        <v>1994</v>
-      </c>
-      <c r="C33" s="29">
-        <f>SUM(C24,C31)</f>
-        <v>1953</v>
-      </c>
-      <c r="D33" s="29">
-        <f>SUM(D24,D31)</f>
-        <v>1810</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29">
-        <f>SUM(F24,F31)</f>
-        <v>3188</v>
-      </c>
-      <c r="G33" s="29">
-        <f t="shared" ref="C33:H33" si="2">SUM(G24,G31)</f>
-        <v>3381</v>
-      </c>
-      <c r="H33" s="29">
-        <f>SUM(H24,H31)</f>
-        <v>3620</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:X5"/>
-    <mergeCell ref="A1:X2"/>
-    <mergeCell ref="A3:X4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39181714-868F-44C8-AC94-7F9B98E7571B}">
-  <dimension ref="A1:X31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:X6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="2">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2">
-        <v>149</v>
-      </c>
-      <c r="D9" s="2">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="2">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2">
-        <v>90</v>
-      </c>
-      <c r="D13" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>1000</v>
-      </c>
-      <c r="D14">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="7">
-        <f>B14/B13</f>
-        <v>5</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" ref="C15:D15" si="0">C14/C13</f>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>29.72972972972973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19">
-        <f>15</f>
-        <v>15</v>
-      </c>
-      <c r="F19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21">
-        <v>52</v>
-      </c>
-      <c r="F21">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22">
-        <f>(B19*B20)*B21</f>
-        <v>3900</v>
-      </c>
-      <c r="F22">
-        <f>(F19*F20)*F21</f>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24">
-        <f>B22</f>
-        <v>3900</v>
-      </c>
-      <c r="F24">
-        <f>F22</f>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="7">
-        <f>B15*B24</f>
-        <v>19500</v>
-      </c>
-      <c r="C25" s="7">
-        <f>C15*B24</f>
-        <v>43333.333333333328</v>
-      </c>
-      <c r="D25" s="7">
-        <f>D15*B24</f>
-        <v>115945.94594594595</v>
-      </c>
-      <c r="F25" s="7">
-        <f>B15*F24</f>
-        <v>650000</v>
-      </c>
-      <c r="G25" s="7">
-        <f>C15*F24</f>
-        <v>1444444.4444444445</v>
-      </c>
-      <c r="H25" s="7">
-        <f>D15*F24</f>
-        <v>3864864.8648648649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="7">
-        <f>B25*B26</f>
-        <v>39000</v>
-      </c>
-      <c r="C28" s="7">
-        <f t="shared" ref="C28:H28" si="1">C25*C26</f>
-        <v>86666.666666666657</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="1"/>
-        <v>231891.89189189189</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7">
-        <f t="shared" si="1"/>
-        <v>1300000</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="1"/>
-        <v>2888888.888888889</v>
-      </c>
-      <c r="H28" s="7">
-        <f t="shared" si="1"/>
-        <v>7729729.7297297297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="29">
-        <f>B28+B9</f>
-        <v>39029</v>
-      </c>
-      <c r="C31" s="29">
-        <f t="shared" ref="C31:H31" si="2">C28+C9</f>
-        <v>86815.666666666657</v>
-      </c>
-      <c r="D31" s="29">
-        <f t="shared" si="2"/>
-        <v>232440.89189189189</v>
-      </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29">
-        <f>F28+B9</f>
-        <v>1300029</v>
-      </c>
-      <c r="G31" s="29">
-        <f>G28+C9</f>
-        <v>2889037.888888889</v>
-      </c>
-      <c r="H31" s="29">
-        <f>H28+D9</f>
-        <v>7730278.7297297297</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:X2"/>
-    <mergeCell ref="A3:X4"/>
-    <mergeCell ref="A5:X6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB44FB7-3218-4C09-807D-717D494F5A18}">
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView zoomScale="43" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection sqref="A1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12741,136 +15033,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -12927,33 +15219,33 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="27">
         <f>SUM(B7:B8)</f>
         <v>15950</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="27">
         <f t="shared" ref="C9:D9" si="0">SUM(C7:C8)</f>
         <v>34100</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="27">
         <f t="shared" si="0"/>
         <v>79200</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="27">
         <f>SUM(H7:H8)</f>
         <v>15950</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="27">
         <f t="shared" ref="I9" si="1">SUM(I7:I8)</f>
         <v>34100</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="27">
         <f t="shared" ref="J9" si="2">SUM(J7:J8)</f>
         <v>79200</v>
       </c>
@@ -13043,33 +15335,33 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="28">
         <f>SUM(B11:B13)</f>
         <v>5138.5714285714284</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="28">
         <f t="shared" ref="C14:D14" si="5">SUM(C11:C13)</f>
         <v>9115.78947368421</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="28">
         <f t="shared" si="5"/>
         <v>10608.823529411766</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="28">
         <f>SUM(H11:H13)</f>
         <v>5138.5714285714284</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="28">
         <f t="shared" ref="I14" si="6">SUM(I11:I13)</f>
         <v>9115.78947368421</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="28">
         <f t="shared" ref="J14" si="7">SUM(J11:J13)</f>
         <v>10608.823529411766</v>
       </c>
@@ -13083,25 +15375,25 @@
       <c r="A18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="26">
         <v>30000</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="26">
         <v>30000</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="26">
         <v>30000</v>
       </c>
       <c r="G18" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="26">
         <v>30000</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="26">
         <v>30000</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="26">
         <v>30000</v>
       </c>
     </row>
@@ -13190,33 +15482,33 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="20">
         <f>B14</f>
         <v>5138.5714285714284</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="20">
         <f t="shared" ref="C23:D23" si="11">C14</f>
         <v>9115.78947368421</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="20">
         <f t="shared" si="11"/>
         <v>10608.823529411766</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="20">
         <f>H14</f>
         <v>5138.5714285714284</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="20">
         <f t="shared" ref="I23:J23" si="12">I14</f>
         <v>9115.78947368421</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="20">
         <f t="shared" si="12"/>
         <v>10608.823529411766</v>
       </c>
@@ -13225,25 +15517,25 @@
       <c r="A25" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="26">
         <v>30000</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="26">
         <v>30000</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="26">
         <v>30000</v>
       </c>
       <c r="G25" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="26">
         <v>30000</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="26">
         <v>30000</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="26">
         <v>30000</v>
       </c>
     </row>
@@ -13251,25 +15543,25 @@
       <c r="A26" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="26">
         <v>250000</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="26">
         <v>250000</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="26">
         <v>250000</v>
       </c>
       <c r="G26" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="26">
         <v>250000</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="26">
         <v>250000</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="26">
         <v>250000</v>
       </c>
     </row>
@@ -13277,62 +15569,62 @@
       <c r="A27" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="29">
         <f>B26/B25</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="29">
         <f t="shared" ref="C27:D27" si="13">C26/C25</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="29">
         <f t="shared" si="13"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="G27" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="29">
         <f>H26/H25</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="29">
         <f t="shared" ref="I27" si="14">I26/I25</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="29">
         <f t="shared" ref="J27" si="15">J26/J25</f>
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="30">
         <f>B23*B27</f>
         <v>42821.428571428572</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="30">
         <f t="shared" ref="C29:D29" si="16">C23*C27</f>
         <v>75964.912280701756</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="30">
         <f t="shared" si="16"/>
         <v>88406.862745098057</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="30">
         <f>H23*H27</f>
         <v>42821.428571428572</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="30">
         <f t="shared" ref="I29:J29" si="17">I23*I27</f>
         <v>75964.912280701756</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="30">
         <f t="shared" si="17"/>
         <v>88406.862745098057</v>
       </c>
@@ -13390,33 +15682,33 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="42">
+      <c r="B34" s="31">
         <f>B32/B27</f>
         <v>7052.5714285714284</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="31">
         <f t="shared" ref="C34:D34" si="20">C32/C27</f>
         <v>13207.78947368421</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="31">
         <f t="shared" si="20"/>
         <v>20112.823529411766</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="31">
         <f>H32/H27</f>
         <v>7052.5714285714284</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="31">
         <f t="shared" ref="I34:J34" si="21">I32/I27</f>
         <v>13207.78947368421</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="31">
         <f t="shared" si="21"/>
         <v>20112.823529411766</v>
       </c>
@@ -13462,16 +15754,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774CAAD1-EF03-4D54-8B56-B3089FB89856}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>